--- a/kpi_app/combine_file/Core_KPIs.xlsx
+++ b/kpi_app/combine_file/Core_KPIs.xlsx
@@ -2504,7 +2504,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2630,7 +2630,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2714,7 +2714,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2756,7 +2756,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2840,7 +2840,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2924,7 +2924,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2966,7 +2966,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3008,7 +3008,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3050,7 +3050,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3092,7 +3092,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3134,7 +3134,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3176,7 +3176,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3218,7 +3218,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3302,7 +3302,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3344,7 +3344,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3386,7 +3386,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3470,7 +3470,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3512,7 +3512,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3554,7 +3554,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3596,7 +3596,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5846,7 +5846,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5890,7 +5890,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6022,7 +6022,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6066,7 +6066,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6110,7 +6110,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6154,7 +6154,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6242,7 +6242,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6286,7 +6286,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6330,7 +6330,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6374,7 +6374,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6418,7 +6418,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6462,7 +6462,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6506,7 +6506,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6550,7 +6550,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6594,7 +6594,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6638,7 +6638,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6682,7 +6682,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6726,7 +6726,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6770,7 +6770,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6814,7 +6814,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6858,7 +6858,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6902,7 +6902,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6946,7 +6946,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6990,7 +6990,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -9050,7 +9050,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9092,7 +9092,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -9176,7 +9176,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -9218,7 +9218,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -9260,7 +9260,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -9302,7 +9302,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -9344,7 +9344,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -9386,7 +9386,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -9428,7 +9428,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -9470,7 +9470,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -9512,7 +9512,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -9554,7 +9554,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -9596,7 +9596,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -9638,7 +9638,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -9680,7 +9680,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -9722,7 +9722,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -9764,7 +9764,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -9806,7 +9806,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -9848,7 +9848,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -9890,7 +9890,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -9932,7 +9932,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -9974,7 +9974,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -10016,7 +10016,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -10058,7 +10058,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -10100,7 +10100,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -10142,7 +10142,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -12302,7 +12302,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -12346,7 +12346,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -12434,7 +12434,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -12478,7 +12478,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -12522,7 +12522,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -12566,7 +12566,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -12610,7 +12610,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -12654,7 +12654,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -12698,7 +12698,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -12742,7 +12742,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -12786,7 +12786,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -12830,7 +12830,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -12874,7 +12874,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -12918,7 +12918,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -12962,7 +12962,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -13006,7 +13006,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -13050,7 +13050,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -13094,7 +13094,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -13138,7 +13138,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -13182,7 +13182,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -13226,7 +13226,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -13270,7 +13270,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -13314,7 +13314,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -13358,7 +13358,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -13402,7 +13402,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -13446,7 +13446,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -15506,7 +15506,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -15548,7 +15548,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -15632,7 +15632,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -15674,7 +15674,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -15716,7 +15716,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -15758,7 +15758,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -15800,7 +15800,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -15842,7 +15842,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -15884,7 +15884,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -15926,7 +15926,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -15968,7 +15968,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -16010,7 +16010,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -16052,7 +16052,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -16094,7 +16094,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -16136,7 +16136,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -16178,7 +16178,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -16220,7 +16220,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -16262,7 +16262,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -16304,7 +16304,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -16346,7 +16346,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -16388,7 +16388,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -16430,7 +16430,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -16472,7 +16472,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -16514,7 +16514,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -16556,7 +16556,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -16598,7 +16598,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -18848,7 +18848,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -18892,7 +18892,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -18980,7 +18980,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -19024,7 +19024,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -19068,7 +19068,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -19112,7 +19112,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -19156,7 +19156,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -19200,7 +19200,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -19244,7 +19244,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -19288,7 +19288,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -19332,7 +19332,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -19376,7 +19376,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -19420,7 +19420,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -19464,7 +19464,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -19508,7 +19508,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -19552,7 +19552,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -19596,7 +19596,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -19640,7 +19640,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -19684,7 +19684,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -19728,7 +19728,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -19772,7 +19772,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -19816,7 +19816,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -19860,7 +19860,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -19904,7 +19904,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -19948,7 +19948,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -19992,7 +19992,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
